--- a/Day14/Grupitöö teemad 2025.xlsx
+++ b/Day14/Grupitöö teemad 2025.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_FB47CEAB5C2AF016FA76939121C3BD8CA9CE4504" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD215035-ACA3-4AAA-9CB0-AC51179EF2A3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsk-my.sharepoint.com/personal/virve_rani_bcs_ee/Documents/Documents/Andmetarkus/Day14/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_FB47CEAB5C2AF016FA76939121C3BD8CA9CE4504" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{778A0B72-BE05-4B12-8C2F-E8731C1C9CD2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Teema</t>
   </si>
@@ -82,13 +87,16 @@
   </si>
   <si>
     <t>Loo tööriist, mis analüüsib, kuidas erinevatel reklaamikampaaniatel läheb. Uuri, kui paljud klikivad reklaamile, kui paljud registreeruvad kasutajaks. Võrdle saadud tulemusi kampaaniale kulutatud rahaga.</t>
+  </si>
+  <si>
+    <t>Virve Räni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,20 +478,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="129" customHeight="1">
+    <row r="2" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -514,7 +522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="168" customHeight="1">
+    <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -525,7 +533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="69" customHeight="1">
+    <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -536,9 +544,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="83.25" customHeight="1">
+    <row r="5" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -550,12 +561,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,19 +735,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED894B6-77CD-414F-B39C-0949B45C2BBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B73116A8-670C-4A6A-AFA0-C10B27A4B4E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07935F44-31F8-483D-B43F-EB3F411C43A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07935F44-31F8-483D-B43F-EB3F411C43A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1a2d923-8fea-42f1-bd41-9cdfff65694e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B73116A8-670C-4A6A-AFA0-C10B27A4B4E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED894B6-77CD-414F-B39C-0949B45C2BBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Day14/Grupitöö teemad 2025.xlsx
+++ b/Day14/Grupitöö teemad 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsk-my.sharepoint.com/personal/virve_rani_bcs_ee/Documents/Documents/Andmetarkus/Day14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_FB47CEAB5C2AF016FA76939121C3BD8CA9CE4504" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{778A0B72-BE05-4B12-8C2F-E8731C1C9CD2}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_FB47CEAB5C2AF016FA76939121C3BD8CA9CE4504" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F059762-D019-4C53-A0C0-D594A1CE1941}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Teema</t>
   </si>
@@ -90,6 +90,45 @@
   </si>
   <si>
     <t>Virve Räni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millest sõltub elektri tarbimine? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ennustada tunnipõhiselt, mis võiks olla tarbimine olenevalt ilmast, nädalapäevast ja kellaajast. Veel mingid tegurid, mis võivad mõjutada. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarmo </t>
+  </si>
+  <si>
+    <t>Johannes</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>Triin</t>
+  </si>
+  <si>
+    <t>Piret</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>Kelli</t>
+  </si>
+  <si>
+    <t>Vahur</t>
+  </si>
+  <si>
+    <t>Mari-Liis</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Anneli</t>
   </si>
 </sst>
 </file>
@@ -156,6 +195,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,6 +564,12 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -532,6 +581,15 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -543,6 +601,15 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -555,18 +622,44 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4D27B8FA8976546BCD79313C588588D" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a112c56f6fe148a79025c76584832af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a2d923-8fea-42f1-bd41-9cdfff65694e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97c8655d467eaa9470a714421e7268c0" ns2:_="">
     <xsd:import namespace="a1a2d923-8fea-42f1-bd41-9cdfff65694e"/>
@@ -734,16 +827,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED894B6-77CD-414F-B39C-0949B45C2BBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B73116A8-670C-4A6A-AFA0-C10B27A4B4E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -752,7 +844,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07935F44-31F8-483D-B43F-EB3F411C43A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -768,12 +860,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED894B6-77CD-414F-B39C-0949B45C2BBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>